--- a/biology/Botanique/Daphniphyllum/Daphniphyllum.xlsx
+++ b/biology/Botanique/Daphniphyllum/Daphniphyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daphniphyllum est un genre de plantes à fleurs, le seul représentant de la famille des Daphniphyllaceae, comprenant 35 espèces. Ce sont des arbustes ou des arbres, des régions tropicales, originaires d'Extrême-Orient et de Malaisie. La classification phylogénétique APG II (2003)[1] situe ce genre dans l'ordre des Saxifragales.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daphniphyllum est un genre de plantes à fleurs, le seul représentant de la famille des Daphniphyllaceae, comprenant 35 espèces. Ce sont des arbustes ou des arbres, des régions tropicales, originaires d'Extrême-Orient et de Malaisie. La classification phylogénétique APG II (2003) situe ce genre dans l'ordre des Saxifragales.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Daphniphyllum est dérivé du grec δάφνη / daphn, laurier, et φύλλων / fyllon, feuille, en raison de la ressemblance des feuilles avec celles de Laurus nobilis (Lauraceae).
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la World Checklist of Selected Plant Families (WCSP)  (27 avr. 2010)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la World Checklist of Selected Plant Families (WCSP)  (27 avr. 2010) :
 Daphniphyllum atrobadium Croizat &amp; Metcalf (1941)
 Daphniphyllum beddomei Craib (1916)
 Daphniphyllum borneense Stapf, Trans. Linn. Soc. London (1894)
